--- a/kintime-webapp/STATIC/wendang/666.xlsx
+++ b/kintime-webapp/STATIC/wendang/666.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="450">
   <si>
     <t>数据库名</t>
   </si>
@@ -1206,9 +1206,6 @@
     <t>评价时间</t>
   </si>
   <si>
-    <t>用户订单详情表ddan</t>
-  </si>
-  <si>
     <t>nrong</t>
   </si>
   <si>
@@ -1467,9 +1464,6 @@
     <t>营业额</t>
   </si>
   <si>
-    <t>外卖商家订单详情表  s_ddan</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -1529,9 +1523,6 @@
     <t>用户订单id</t>
   </si>
   <si>
-    <t>1新订单 9商家接单 2进行中(骑手赶往商家)3进行中(骑手已经到达) 4已完成 5已取消 6退款/售后 7同意退款 8不同意退款</t>
-  </si>
-  <si>
     <t>qid</t>
   </si>
   <si>
@@ -1560,9 +1551,6 @@
   </si>
   <si>
     <t>外卖号</t>
-  </si>
-  <si>
-    <t>骑手取外卖的号</t>
   </si>
   <si>
     <r>
@@ -1648,9 +1636,6 @@
     </r>
   </si>
   <si>
-    <t>堂食商家订单详情表  t_ddan</t>
-  </si>
-  <si>
     <t>y_time</t>
   </si>
   <si>
@@ -1763,6 +1748,34 @@
   </si>
   <si>
     <t>商家id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuan</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1新订单 9商家接单 2进行中(骑手赶往商家)3进行中(骑手已经到达) 4已完成 5已取消 6退款/售后 7同意退款 8不同意退款</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户订单详情表ddan</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖商家订单详情表  s_ddan</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>堂食商家订单详情表  t_ddan</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑手取外卖的号</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3707,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E148" workbookViewId="0">
-      <selection activeCell="Q185" sqref="Q185"/>
+    <sheetView tabSelected="1" topLeftCell="F139" workbookViewId="0">
+      <selection activeCell="T152" sqref="T152:T160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9023,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="175" t="s">
-        <v>313</v>
+        <v>446</v>
       </c>
       <c r="Q138" s="176"/>
       <c r="R138" s="176"/>
@@ -9044,10 +9057,10 @@
         <v>5</v>
       </c>
       <c r="J139" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="K139" s="94" t="s">
         <v>314</v>
-      </c>
-      <c r="K139" s="94" t="s">
-        <v>315</v>
       </c>
       <c r="L139" s="94" t="s">
         <v>10</v>
@@ -9080,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="AB139" s="189" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC139" s="186"/>
       <c r="AD139" s="186"/>
@@ -9091,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C140" s="170"/>
       <c r="D140" s="170"/>
@@ -9101,10 +9114,10 @@
         <v>6</v>
       </c>
       <c r="J140" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="K140" s="94" t="s">
         <v>318</v>
-      </c>
-      <c r="K140" s="94" t="s">
-        <v>319</v>
       </c>
       <c r="L140" s="94" t="s">
         <v>14</v>
@@ -9172,16 +9185,16 @@
         <v>7</v>
       </c>
       <c r="J141" s="117" t="s">
+        <v>319</v>
+      </c>
+      <c r="K141" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="K141" s="117" t="s">
+      <c r="L141" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="L141" s="117" t="s">
+      <c r="M141" s="142" t="s">
         <v>322</v>
-      </c>
-      <c r="M141" s="142" t="s">
-        <v>323</v>
       </c>
       <c r="N141" s="141"/>
       <c r="O141" s="129">
@@ -9239,10 +9252,10 @@
       <c r="F142" s="1"/>
       <c r="I142" s="94"/>
       <c r="J142" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="K142" s="117" t="s">
         <v>324</v>
-      </c>
-      <c r="K142" s="117" t="s">
-        <v>325</v>
       </c>
       <c r="L142" s="94"/>
       <c r="M142" s="94"/>
@@ -9288,10 +9301,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -9302,14 +9315,14 @@
       <c r="F143" s="1"/>
       <c r="I143" s="94"/>
       <c r="J143" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="K143" s="117" t="s">
         <v>328</v>
-      </c>
-      <c r="K143" s="117" t="s">
-        <v>329</v>
       </c>
       <c r="L143" s="94"/>
       <c r="M143" s="117" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N143" s="141"/>
       <c r="O143" s="129">
@@ -9319,7 +9332,7 @@
         <v>219</v>
       </c>
       <c r="Q143" s="131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R143" s="129" t="s">
         <v>14</v>
@@ -9353,10 +9366,10 @@
         <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -9379,7 +9392,7 @@
         <v>5</v>
       </c>
       <c r="P144" s="131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q144" s="131" t="s">
         <v>245</v>
@@ -9417,7 +9430,7 @@
         <v>64</v>
       </c>
       <c r="C145" s="83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D145" s="83" t="s">
         <v>10</v>
@@ -9440,10 +9453,10 @@
         <v>6</v>
       </c>
       <c r="P145" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q145" s="131" t="s">
         <v>336</v>
-      </c>
-      <c r="Q145" s="131" t="s">
-        <v>337</v>
       </c>
       <c r="R145" s="131" t="s">
         <v>170</v>
@@ -9480,7 +9493,7 @@
         <v>110</v>
       </c>
       <c r="L146" s="117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M146" s="94"/>
       <c r="N146" s="141"/>
@@ -9488,17 +9501,17 @@
         <v>7</v>
       </c>
       <c r="P146" s="131" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q146" s="131" t="s">
         <v>339</v>
-      </c>
-      <c r="Q146" s="131" t="s">
-        <v>340</v>
       </c>
       <c r="R146" s="131" t="s">
         <v>10</v>
       </c>
       <c r="S146" s="129"/>
       <c r="T146" s="131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U146" s="129"/>
       <c r="V146" s="129"/>
@@ -9519,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="B147" s="190" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C147" s="170"/>
       <c r="D147" s="170"/>
@@ -9528,15 +9541,15 @@
         <v>8</v>
       </c>
       <c r="P147" s="131" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q147" s="131" t="s">
         <v>342</v>
-      </c>
-      <c r="Q147" s="131" t="s">
-        <v>343</v>
       </c>
       <c r="R147" s="129"/>
       <c r="S147" s="129"/>
       <c r="T147" s="131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U147" s="129"/>
       <c r="V147" s="129"/>
@@ -9573,25 +9586,25 @@
       </c>
       <c r="O148" s="129"/>
       <c r="P148" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q148" s="131" t="s">
         <v>345</v>
-      </c>
-      <c r="Q148" s="131" t="s">
-        <v>346</v>
       </c>
       <c r="R148" s="129"/>
       <c r="S148" s="129"/>
       <c r="T148" s="191" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U148" s="192"/>
       <c r="V148" s="192"/>
       <c r="W148" s="192"/>
       <c r="X148" s="193"/>
       <c r="AB148" s="161" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC148" s="162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD148" s="163"/>
     </row>
@@ -9616,17 +9629,17 @@
         <v>0</v>
       </c>
       <c r="J149" s="183" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K149" s="184"/>
       <c r="L149" s="184"/>
       <c r="M149" s="184"/>
       <c r="O149" s="129"/>
       <c r="P149" s="131" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q149" s="131" t="s">
         <v>350</v>
-      </c>
-      <c r="Q149" s="131" t="s">
-        <v>351</v>
       </c>
       <c r="R149" s="129"/>
       <c r="S149" s="129"/>
@@ -9641,10 +9654,10 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -9670,15 +9683,15 @@
       </c>
       <c r="O150" s="129"/>
       <c r="P150" s="131" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q150" s="131" t="s">
         <v>352</v>
-      </c>
-      <c r="Q150" s="131" t="s">
-        <v>353</v>
       </c>
       <c r="R150" s="129"/>
       <c r="S150" s="129"/>
       <c r="T150" s="129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U150" s="129"/>
       <c r="V150" s="129"/>
@@ -9690,10 +9703,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -9721,10 +9734,10 @@
         <v>152</v>
       </c>
       <c r="Q151" s="144" t="s">
+        <v>354</v>
+      </c>
+      <c r="T151" s="156" t="s">
         <v>355</v>
-      </c>
-      <c r="T151" s="156" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:31">
@@ -9735,7 +9748,7 @@
         <v>64</v>
       </c>
       <c r="C152" s="83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D152" s="83" t="s">
         <v>10</v>
@@ -9744,16 +9757,16 @@
         <v>11</v>
       </c>
       <c r="F152" s="126" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I152" s="143">
         <v>2</v>
       </c>
       <c r="J152" s="143" t="s">
+        <v>357</v>
+      </c>
+      <c r="K152" s="143" t="s">
         <v>358</v>
-      </c>
-      <c r="K152" s="143" t="s">
-        <v>359</v>
       </c>
       <c r="L152" s="143" t="s">
         <v>14</v>
@@ -9765,7 +9778,7 @@
         <v>209</v>
       </c>
       <c r="Q152" s="144" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="153" spans="1:31">
@@ -9776,7 +9789,7 @@
         <v>34</v>
       </c>
       <c r="C153" s="81" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D153" s="81" t="s">
         <v>10</v>
@@ -9789,7 +9802,7 @@
         <v>69</v>
       </c>
       <c r="K153" s="143" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L153" s="143" t="s">
         <v>14</v>
@@ -9801,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="P153" s="185" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q153" s="186"/>
       <c r="R153" s="186"/>
@@ -9810,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="V153" s="185" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W153" s="186"/>
       <c r="X153" s="186"/>
@@ -9822,13 +9835,13 @@
         <v>12</v>
       </c>
       <c r="C154" s="81" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D154" s="81" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="57" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I154" s="57"/>
       <c r="J154" s="57"/>
@@ -9869,10 +9882,10 @@
     <row r="155" spans="1:31">
       <c r="A155" s="82"/>
       <c r="B155" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="C155" s="81" t="s">
         <v>366</v>
-      </c>
-      <c r="C155" s="81" t="s">
-        <v>367</v>
       </c>
       <c r="D155" s="82"/>
       <c r="F155" s="57"/>
@@ -9915,14 +9928,14 @@
     <row r="156" spans="1:31">
       <c r="A156" s="82"/>
       <c r="B156" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="C156" s="81" t="s">
         <v>368</v>
-      </c>
-      <c r="C156" s="81" t="s">
-        <v>369</v>
       </c>
       <c r="D156" s="82"/>
       <c r="F156" s="57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I156" s="57"/>
       <c r="J156" s="57"/>
@@ -9951,16 +9964,16 @@
         <v>216</v>
       </c>
       <c r="W156" s="147" t="s">
+        <v>370</v>
+      </c>
+      <c r="X156" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y156" s="147" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z156" s="159" t="s">
         <v>371</v>
-      </c>
-      <c r="X156" s="157" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y156" s="147" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z156" s="159" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:31">
@@ -9981,7 +9994,7 @@
         <v>3</v>
       </c>
       <c r="P157" s="147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q157" s="147" t="s">
         <v>169</v>
@@ -9999,7 +10012,7 @@
         <v>136</v>
       </c>
       <c r="W157" s="157" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X157" s="147" t="s">
         <v>14</v>
@@ -10013,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="175" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C158" s="176"/>
       <c r="D158" s="176"/>
@@ -10021,7 +10034,7 @@
       <c r="F158" s="129"/>
       <c r="G158" s="130"/>
       <c r="H158" s="188" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I158" s="188"/>
       <c r="J158" s="188"/>
@@ -10032,10 +10045,10 @@
         <v>4</v>
       </c>
       <c r="P158" s="148" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q158" s="148" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R158" s="148" t="s">
         <v>10</v>
@@ -10045,10 +10058,10 @@
         <v>4</v>
       </c>
       <c r="V158" s="148" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W158" s="159" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="X158" s="148" t="s">
         <v>10</v>
@@ -10147,7 +10160,7 @@
         <v>12</v>
       </c>
       <c r="Q160" s="149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R160" s="11"/>
       <c r="S160" s="57"/>
@@ -10176,7 +10189,7 @@
         <v>82</v>
       </c>
       <c r="I161" s="132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J161" s="130" t="s">
         <v>14</v>
@@ -10197,10 +10210,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C162" s="131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D162" s="129" t="s">
         <v>14</v>
@@ -10213,10 +10226,10 @@
         <v>3</v>
       </c>
       <c r="H162" s="132" t="s">
+        <v>380</v>
+      </c>
+      <c r="I162" s="132" t="s">
         <v>381</v>
-      </c>
-      <c r="I162" s="132" t="s">
-        <v>382</v>
       </c>
       <c r="J162" s="130" t="s">
         <v>14</v>
@@ -10230,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="173" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="Q162" s="174"/>
       <c r="R162" s="174"/>
@@ -10252,10 +10265,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="131" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C163" s="131" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D163" s="129" t="s">
         <v>10</v>
@@ -10268,10 +10281,10 @@
         <v>4</v>
       </c>
       <c r="H163" s="132" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I163" s="132" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J163" s="130" t="s">
         <v>10</v>
@@ -10316,7 +10329,7 @@
         <v>219</v>
       </c>
       <c r="C164" s="131" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D164" s="129" t="s">
         <v>10</v>
@@ -10327,10 +10340,10 @@
         <v>5</v>
       </c>
       <c r="H164" s="132" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I164" s="132" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J164" s="130" t="s">
         <v>10</v>
@@ -10377,15 +10390,15 @@
         <v>14</v>
       </c>
       <c r="E165" s="129" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F165" s="131"/>
       <c r="G165" s="130"/>
       <c r="H165" s="132" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I165" s="132" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J165" s="130"/>
       <c r="K165" s="130"/>
@@ -10430,11 +10443,11 @@
         <v>219</v>
       </c>
       <c r="I166" s="132" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J166" s="130"/>
       <c r="K166" s="132" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L166" s="130"/>
       <c r="M166" s="127"/>
@@ -10445,7 +10458,7 @@
         <v>64</v>
       </c>
       <c r="Q166" s="151" t="s">
-        <v>286</v>
+        <v>445</v>
       </c>
       <c r="R166" s="150" t="s">
         <v>14</v>
@@ -10486,7 +10499,7 @@
         <v>219</v>
       </c>
       <c r="Q167" s="151" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R167" s="150" t="s">
         <v>14</v>
@@ -10511,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="B168" s="175" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C168" s="176"/>
       <c r="D168" s="176"/>
@@ -10521,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="177" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I168" s="177"/>
       <c r="J168" s="177"/>
@@ -10532,7 +10545,7 @@
         <v>5</v>
       </c>
       <c r="P168" s="151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q168" s="151" t="s">
         <v>290</v>
@@ -10591,10 +10604,10 @@
         <v>6</v>
       </c>
       <c r="P169" s="151" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q169" s="151" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="R169" s="151" t="s">
         <v>170</v>
@@ -10650,16 +10663,16 @@
         <v>7</v>
       </c>
       <c r="P170" s="151" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q170" s="151" t="s">
         <v>339</v>
       </c>
-      <c r="Q170" s="151" t="s">
-        <v>340</v>
-      </c>
       <c r="R170" s="151" t="s">
         <v>10</v>
       </c>
       <c r="S170" s="151" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="T170" s="150"/>
       <c r="U170" s="150"/>
@@ -10694,10 +10707,10 @@
         <v>2</v>
       </c>
       <c r="H171" s="136" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I171" s="136" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J171" s="135" t="s">
         <v>14</v>
@@ -10711,10 +10724,10 @@
         <v>8</v>
       </c>
       <c r="P171" s="151" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q171" s="151" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R171" s="150"/>
       <c r="S171" s="150"/>
@@ -10738,13 +10751,13 @@
         <v>251</v>
       </c>
       <c r="C172" s="131" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D172" s="129" t="s">
         <v>10</v>
       </c>
       <c r="E172" s="129" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F172" s="134"/>
       <c r="G172" s="135">
@@ -10754,7 +10767,7 @@
         <v>34</v>
       </c>
       <c r="I172" s="136" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J172" s="135" t="s">
         <v>10</v>
@@ -10768,10 +10781,10 @@
         <v>9</v>
       </c>
       <c r="P172" s="150" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q172" s="150" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="R172" s="150"/>
       <c r="S172" s="150"/>
@@ -10790,10 +10803,10 @@
     <row r="173" spans="1:30">
       <c r="A173" s="129"/>
       <c r="B173" s="131" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C173" s="131" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D173" s="129" t="s">
         <v>14</v>
@@ -10824,11 +10837,11 @@
         <v>116</v>
       </c>
       <c r="Q173" s="150" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R173" s="150"/>
       <c r="S173" s="150" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="T173" s="150"/>
       <c r="U173" s="150"/>
@@ -10853,10 +10866,10 @@
         <v>6</v>
       </c>
       <c r="H174" s="136" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I174" s="136" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J174" s="135" t="s">
         <v>10</v>
@@ -10886,13 +10899,13 @@
         <v>84</v>
       </c>
       <c r="I175" s="136" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J175" s="135" t="s">
         <v>10</v>
       </c>
       <c r="K175" s="153" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L175" s="152"/>
       <c r="M175" s="152"/>
@@ -10900,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="178" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="Q175" s="179"/>
       <c r="R175" s="179"/>
@@ -10925,7 +10938,7 @@
         <v>219</v>
       </c>
       <c r="I176" s="136" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J176" s="135" t="s">
         <v>10</v>
@@ -11072,10 +11085,10 @@
         <v>3</v>
       </c>
       <c r="P179" s="155" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q179" s="155" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="R179" s="154" t="s">
         <v>14</v>
@@ -11119,7 +11132,7 @@
         <v>219</v>
       </c>
       <c r="Q180" s="155" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R180" s="154" t="s">
         <v>14</v>
@@ -11144,11 +11157,11 @@
         <v>116</v>
       </c>
       <c r="I181" s="136" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J181" s="135"/>
       <c r="K181" s="152" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L181" s="152"/>
       <c r="M181" s="152"/>
@@ -11156,7 +11169,7 @@
         <v>5</v>
       </c>
       <c r="P181" s="155" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="Q181" s="155" t="s">
         <v>290</v>
@@ -11186,10 +11199,10 @@
         <v>6</v>
       </c>
       <c r="P182" s="155" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q182" s="155" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="R182" s="155" t="s">
         <v>170</v>
@@ -11216,16 +11229,16 @@
         <v>7</v>
       </c>
       <c r="P183" s="155" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q183" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="Q183" s="155" t="s">
-        <v>340</v>
-      </c>
       <c r="R183" s="155" t="s">
         <v>10</v>
       </c>
       <c r="S183" s="155" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="T183" s="154"/>
       <c r="U183" s="154"/>
@@ -11248,10 +11261,10 @@
         <v>8</v>
       </c>
       <c r="P184" s="155" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q184" s="155" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R184" s="154"/>
       <c r="S184" s="154"/>
@@ -11274,10 +11287,10 @@
       <c r="M185" s="57"/>
       <c r="O185" s="154"/>
       <c r="P185" s="155" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q185" s="154" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="R185" s="154"/>
       <c r="S185" s="154"/>
@@ -11294,7 +11307,7 @@
       <c r="D186" s="137"/>
       <c r="E186" s="137"/>
       <c r="F186" s="138" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G186" s="137"/>
       <c r="H186" s="137"/>
@@ -11310,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="B187" s="180" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C187" s="181"/>
       <c r="D187" s="181"/>
@@ -11396,7 +11409,7 @@
         <v>72</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D192" s="29" t="s">
         <v>10</v>
@@ -11414,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="B195" s="168" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C195" s="168"/>
       <c r="D195" s="168"/>
@@ -11552,7 +11565,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="84" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C203" s="84" t="s">
         <v>76</v>
@@ -11573,7 +11586,7 @@
         <v>268</v>
       </c>
       <c r="C204" s="84" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D204" s="84" t="s">
         <v>14</v>
@@ -11591,7 +11604,7 @@
         <v>269</v>
       </c>
       <c r="C205" s="84" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D205" s="84" t="s">
         <v>14</v>
@@ -11613,7 +11626,7 @@
         <v>14</v>
       </c>
       <c r="E206" s="84" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F206" s="84"/>
     </row>
@@ -11623,7 +11636,7 @@
         <v>88</v>
       </c>
       <c r="C207" s="88" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D207" s="84" t="s">
         <v>14</v>
@@ -11634,7 +11647,7 @@
     <row r="208" spans="1:6">
       <c r="A208" s="84"/>
       <c r="B208" s="88" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C208" s="88" t="s">
         <v>245</v>
@@ -11651,7 +11664,7 @@
         <v>97</v>
       </c>
       <c r="C209" s="88" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D209" s="84" t="s">
         <v>14</v>
@@ -11662,7 +11675,7 @@
     <row r="210" spans="1:18">
       <c r="A210" s="84"/>
       <c r="B210" s="88" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C210" s="88" t="s">
         <v>100</v>
@@ -11676,7 +11689,7 @@
     <row r="211" spans="1:18">
       <c r="A211" s="84"/>
       <c r="B211" s="88" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C211" s="88" t="s">
         <v>102</v>
@@ -11698,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="169" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C213" s="170"/>
       <c r="D213" s="170"/>
@@ -11745,10 +11758,10 @@
         <v>2</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -11763,10 +11776,10 @@
         <v>3</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -11784,7 +11797,7 @@
         <v>64</v>
       </c>
       <c r="C218" s="83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D218" s="83" t="s">
         <v>10</v>
@@ -11801,7 +11814,7 @@
       <c r="D220" s="165"/>
       <c r="E220" s="165"/>
       <c r="F220" s="166" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G220" s="165"/>
       <c r="H220" s="165"/>
@@ -11821,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="B222" s="169" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C222" s="170"/>
       <c r="D222" s="170"/>
@@ -11907,7 +11920,7 @@
         <v>72</v>
       </c>
       <c r="C227" s="83" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D227" s="83" t="s">
         <v>10</v>
@@ -11925,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="172" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C230" s="172"/>
       <c r="D230" s="172"/>
@@ -11934,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="169" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I230" s="170"/>
       <c r="J230" s="170"/>
@@ -12012,7 +12025,7 @@
         <v>12</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>14</v>
@@ -12027,7 +12040,7 @@
         <v>136</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>14</v>
@@ -12059,7 +12072,7 @@
         <v>128</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>10</v>
@@ -12076,7 +12089,7 @@
         <v>30</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>14</v>
@@ -12107,10 +12120,10 @@
         <v>7</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>10</v>
@@ -12119,7 +12132,7 @@
         <v>11</v>
       </c>
       <c r="F237" s="81" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -12130,7 +12143,7 @@
         <v>128</v>
       </c>
       <c r="C238" s="81" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D238" s="81" t="s">
         <v>10</v>
